--- a/FishLandings/household groups/statistics/Calcium (mg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Calcium (mg)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>121210411.712973</v>
+        <v>170898984.535841</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>57.495063</v>
+        <v>97.546297</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>20378896.423127</v>
+        <v>37151728.931981</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.833273</v>
+        <v>10.602794</v>
       </c>
       <c r="E3">
-        <v>0.008814000000000001</v>
+        <v>3.4e-05</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>470125964.657988</v>
+        <v>581656760.2900831</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-567.933683</v>
+        <v>-608.985486</v>
       </c>
       <c r="H5">
-        <v>-1202.057117</v>
+        <v>-1088.882887</v>
       </c>
       <c r="I5">
-        <v>66.189751</v>
+        <v>-129.088084</v>
       </c>
       <c r="J5">
-        <v>0.08945400000000001</v>
+        <v>0.00847</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>49.487735</v>
+        <v>82.161582</v>
       </c>
       <c r="H6">
-        <v>-633.328937</v>
+        <v>-421.893392</v>
       </c>
       <c r="I6">
-        <v>732.304408</v>
+        <v>586.216557</v>
       </c>
       <c r="J6">
-        <v>0.984009</v>
+        <v>0.92206</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>617.421418</v>
+        <v>691.147068</v>
       </c>
       <c r="H7">
-        <v>101.204913</v>
+        <v>312.131393</v>
       </c>
       <c r="I7">
-        <v>1133.637924</v>
+        <v>1070.162744</v>
       </c>
       <c r="J7">
-        <v>0.014345</v>
+        <v>6.9e-05</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Calcium (mg)_output.xlsx
+++ b/FishLandings/household groups/statistics/Calcium (mg)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>170898984.535841</v>
+        <v>121210411.712973</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>97.546297</v>
+        <v>57.495063</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>37151728.931981</v>
+        <v>20378896.423127</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10.602794</v>
+        <v>4.833273</v>
       </c>
       <c r="E3">
-        <v>3.4e-05</v>
+        <v>0.008814000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>581656760.2900831</v>
+        <v>470125964.657988</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-608.985486</v>
+        <v>-567.933683</v>
       </c>
       <c r="H5">
-        <v>-1088.882887</v>
+        <v>-1202.057117</v>
       </c>
       <c r="I5">
-        <v>-129.088084</v>
+        <v>66.189751</v>
       </c>
       <c r="J5">
-        <v>0.00847</v>
+        <v>0.08945400000000001</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>82.161582</v>
+        <v>49.487735</v>
       </c>
       <c r="H6">
-        <v>-421.893392</v>
+        <v>-633.328937</v>
       </c>
       <c r="I6">
-        <v>586.216557</v>
+        <v>732.304408</v>
       </c>
       <c r="J6">
-        <v>0.92206</v>
+        <v>0.984009</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>691.147068</v>
+        <v>617.421418</v>
       </c>
       <c r="H7">
-        <v>312.131393</v>
+        <v>101.204913</v>
       </c>
       <c r="I7">
-        <v>1070.162744</v>
+        <v>1133.637924</v>
       </c>
       <c r="J7">
-        <v>6.9e-05</v>
+        <v>0.014345</v>
       </c>
     </row>
   </sheetData>
